--- a/Training/BiLSTM_LTC_result1.xlsx
+++ b/Training/BiLSTM_LTC_result1.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7976704139951636</v>
+        <v>0.9605925491058162</v>
       </c>
       <c r="F1" t="n">
-        <v>0.5977617091931023</v>
+        <v>0.7532338984181276</v>
       </c>
       <c r="G1" t="n">
-        <v>1.016830070156814</v>
+        <v>1.291028059437353</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7003782116809997</v>
+        <v>0.8358190476557743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4970334081292488</v>
+        <v>0.6278296949339183</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8321106421477795</v>
+        <v>1.054310521711935</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7222555820153673</v>
+        <v>0.9260540439460296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5154315149195484</v>
+        <v>0.7169189705201379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.85500936383154</v>
+        <v>1.214594902403009</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.813832404235295</v>
+        <v>0.7689098446143028</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6006064851817663</v>
+        <v>0.5676724368618725</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9886871487434681</v>
+        <v>0.9523376428350426</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6479658136916715</v>
+        <v>0.6240011556400308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4544111597535695</v>
+        <v>0.4205546516433044</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7689828350282529</v>
+        <v>0.7018461487525343</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.592055773874774</v>
+        <v>0.6393803058285136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3961501420283978</v>
+        <v>0.4372964234798855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6651775010679184</v>
+        <v>0.7221468202629076</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7287073918620209</v>
+        <v>0.8092916956922197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5691564162489775</v>
+        <v>0.6223574874323592</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9683401377252636</v>
+        <v>1.069071781969139</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6128206933632552</v>
+        <v>0.6597170359853461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4129566897521446</v>
+        <v>0.4586528232785985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6869397411877733</v>
+        <v>0.7595614021366609</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7100453720748288</v>
+        <v>0.5927119931300765</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5231489696081268</v>
+        <v>0.3964886591019633</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8613950046695107</v>
+        <v>0.6673328773316621</v>
       </c>
     </row>
   </sheetData>
